--- a/biology/Botanique/Brachycereus_nesioticus/Brachycereus_nesioticus.xlsx
+++ b/biology/Botanique/Brachycereus_nesioticus/Brachycereus_nesioticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachycereus est un genre monotypique (c'est-à-dire ne comportant qu'une espèce) de la famille des cactus.
 Il est originaire de l'île Bartolomé sur l'archipel des îles Galápagos où il colonise les champs de lave. Pour cette raison, il est parfois appelé Lava cactus.
@@ -514,7 +526,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre ne comporte qu'une espèce : Brachycereus nesioticus K.Schum. Backeb., 1935
 Synonyme : Cereus nesioticus K.Schum., 1902
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante forme de grosses tiges plus ou moins dressées jusqu'à 60 cm de haut poussant en buissons et couvertes d'épines.
 Les tiges ont un diamètre de 3 à 5 cm avec de 16 à 22 côtes couvertes d'épines plutôt souples de 0,5 à 5 cm de long.
